--- a/Doc/Meting.xlsx
+++ b/Doc/Meting.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emile\Nextcloud\Programming\W3230_Reflow_Plate\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681026AC-3AA7-41B0-A905-2DF4078617CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567C0685-1A2E-446B-8D22-AFA038903E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meting" sheetId="1" r:id="rId1"/>
     <sheet name="PID" sheetId="2" r:id="rId2"/>
     <sheet name="S to Z" sheetId="3" r:id="rId3"/>
     <sheet name="Display" sheetId="4" r:id="rId4"/>
+    <sheet name="Meting (2)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="167">
   <si>
     <t>t (sec.)</t>
   </si>
@@ -502,6 +503,33 @@
   </si>
   <si>
     <t xml:space="preserve"> - pc_msk bekijkt welke CC/CA lijnen actief gemaakt moeten worden, voor een CA display moeten de Anode 1 gemaakt worden</t>
+  </si>
+  <si>
+    <t>SP (°C)</t>
+  </si>
+  <si>
+    <t>PV (°C)</t>
+  </si>
+  <si>
+    <t>1 59 3</t>
+  </si>
+  <si>
+    <t>2 15 4</t>
+  </si>
+  <si>
+    <t>2 10 4</t>
+  </si>
+  <si>
+    <t>2 25 4 FF40</t>
+  </si>
+  <si>
+    <t>3 30 4 FF0</t>
+  </si>
+  <si>
+    <t>3 30 4 FF40</t>
+  </si>
+  <si>
+    <t>3 20 4 FF0</t>
   </si>
 </sst>
 </file>
@@ -1176,115 +1204,115 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.065361225676341</c:v>
+                  <c:v>54.065361225676334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.644718492933819</c:v>
+                  <c:v>57.644718492933812</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>80.074189207823423</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83.277138819490659</c:v>
+                  <c:v>83.277138819490645</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>103.34791107051038</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>106.21403631280555</c:v>
+                  <c:v>106.21403631280553</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>124.17415244184485</c:v>
+                  <c:v>124.17415244184484</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>126.73887399556469</c:v>
+                  <c:v>126.73887399556466</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>142.81029204238095</c:v>
+                  <c:v>142.81029204238092</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>145.10530572533071</c:v>
+                  <c:v>145.10530572533065</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>159.4866424705819</c:v>
+                  <c:v>159.48664247058184</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>161.54031094671228</c:v>
+                  <c:v>161.54031094671222</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>174.40929649471025</c:v>
+                  <c:v>174.40929649471019</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>176.24699979085398</c:v>
+                  <c:v>176.24699979085392</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>187.76267402671846</c:v>
+                  <c:v>187.7626740267184</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>189.40712318874725</c:v>
+                  <c:v>189.40712318874719</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>199.71180125462504</c:v>
+                  <c:v>199.71180125462499</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>201.18331901931086</c:v>
+                  <c:v>201.1833190193108</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>210.40435009977296</c:v>
+                  <c:v>210.4043500997729</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>211.72112205100461</c:v>
+                  <c:v>211.72112205100458</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>219.97246320336939</c:v>
+                  <c:v>219.97246320336936</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>221.15076251660986</c:v>
+                  <c:v>221.15076251660983</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>228.53438699619426</c:v>
+                  <c:v>228.53438699619423</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>229.5887755486572</c:v>
+                  <c:v>229.58877554865717</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>236.19593303358235</c:v>
+                  <c:v>236.19593303358232</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>237.13944136552519</c:v>
+                  <c:v>237.13944136552516</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>243.05178565542056</c:v>
+                  <c:v>243.05178565542053</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>243.89607400658494</c:v>
+                  <c:v>243.89607400658491</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>249.18667213172625</c:v>
+                  <c:v>249.18667213172623</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>249.94217454307653</c:v>
+                  <c:v>249.9421745430765</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>254.67640975491736</c:v>
+                  <c:v>254.67640975491733</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>255.35246301654166</c:v>
+                  <c:v>255.35246301654163</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>259.58884281914385</c:v>
+                  <c:v>259.58884281914379</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>260.1938018579059</c:v>
+                  <c:v>260.19380185790584</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>263.98468106623261</c:v>
+                  <c:v>263.98468106623255</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>264.52602219917912</c:v>
+                  <c:v>264.52602219917901</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>267.91824996008398</c:v>
+                  <c:v>267.91824996008393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1590,6 +1618,3672 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-477E-42DC-B849-93B40B92828A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="592309192"/>
+        <c:axId val="592316392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="592309192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592316392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="592316392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592309192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meting (2)'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SP (°C)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.55875962524552E-2"/>
+                  <c:y val="0.33718920689887871"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="nl-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Meting (2)'!$C$3:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Meting (2)'!$D$3:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-75EF-4B7B-AF27-34BB8F90937E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meting (2)'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV (°C)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Meting (2)'!$C$3:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Meting (2)'!$E$3:$E$64</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-75EF-4B7B-AF27-34BB8F90937E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meting (2)'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV (°C)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Meting (2)'!$C$3:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Meting (2)'!$F$3:$F$64</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-75EF-4B7B-AF27-34BB8F90937E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meting (2)'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV (°C)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Meting (2)'!$C$3:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Meting (2)'!$G$3:$G$64</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-75EF-4B7B-AF27-34BB8F90937E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meting (2)'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV (°C)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Meting (2)'!$C$3:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Meting (2)'!$H$3:$H$64</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-75EF-4B7B-AF27-34BB8F90937E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meting (2)'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV (°C)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Meting (2)'!$C$3:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Meting (2)'!$I$3:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-75EF-4B7B-AF27-34BB8F90937E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meting (2)'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV (°C)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Meting (2)'!$C$3:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Meting (2)'!$J$3:$J$64</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-75EF-4B7B-AF27-34BB8F90937E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meting (2)'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV (°C)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Meting (2)'!$C$3:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Meting (2)'!$K$3:$K$64</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-75EF-4B7B-AF27-34BB8F90937E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1813,7 +5507,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2655,6 +6905,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{521221AD-FA44-4023-9EC4-06348F30AEC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2920,7 +7213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:Q41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
@@ -2985,7 +7278,7 @@
       </c>
       <c r="E5" s="6">
         <f>Q$28*100+Q$29*100+Q$27*E3</f>
-        <v>54.065361225676341</v>
+        <v>54.065361225676334</v>
       </c>
       <c r="F5" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F4</f>
@@ -3002,7 +7295,7 @@
       </c>
       <c r="E6" s="6">
         <f t="shared" ref="E6:E41" si="1">Q$28*100+Q$29*100+Q$27*E4</f>
-        <v>57.644718492933819</v>
+        <v>57.644718492933812</v>
       </c>
       <c r="F6" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F5</f>
@@ -3036,7 +7329,7 @@
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>83.277138819490659</v>
+        <v>83.277138819490645</v>
       </c>
       <c r="F8" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F7</f>
@@ -3070,7 +7363,7 @@
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>106.21403631280555</v>
+        <v>106.21403631280553</v>
       </c>
       <c r="F10" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F9</f>
@@ -3087,7 +7380,7 @@
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>124.17415244184485</v>
+        <v>124.17415244184484</v>
       </c>
       <c r="F11" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F10</f>
@@ -3104,7 +7397,7 @@
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>126.73887399556469</v>
+        <v>126.73887399556466</v>
       </c>
       <c r="F12" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F11</f>
@@ -3121,7 +7414,7 @@
       </c>
       <c r="E13" s="6">
         <f t="shared" si="1"/>
-        <v>142.81029204238095</v>
+        <v>142.81029204238092</v>
       </c>
       <c r="F13" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F12</f>
@@ -3138,7 +7431,7 @@
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>145.10530572533071</v>
+        <v>145.10530572533065</v>
       </c>
       <c r="F14" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F13</f>
@@ -3155,7 +7448,7 @@
       </c>
       <c r="E15" s="6">
         <f t="shared" si="1"/>
-        <v>159.4866424705819</v>
+        <v>159.48664247058184</v>
       </c>
       <c r="F15" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F14</f>
@@ -3172,7 +7465,7 @@
       </c>
       <c r="E16" s="6">
         <f t="shared" si="1"/>
-        <v>161.54031094671228</v>
+        <v>161.54031094671222</v>
       </c>
       <c r="F16" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F15</f>
@@ -3189,7 +7482,7 @@
       </c>
       <c r="E17" s="6">
         <f t="shared" si="1"/>
-        <v>174.40929649471025</v>
+        <v>174.40929649471019</v>
       </c>
       <c r="F17" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F16</f>
@@ -3206,7 +7499,7 @@
       </c>
       <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>176.24699979085398</v>
+        <v>176.24699979085392</v>
       </c>
       <c r="F18" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F17</f>
@@ -3223,7 +7516,7 @@
       </c>
       <c r="E19" s="6">
         <f t="shared" si="1"/>
-        <v>187.76267402671846</v>
+        <v>187.7626740267184</v>
       </c>
       <c r="F19" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F18</f>
@@ -3240,7 +7533,7 @@
       </c>
       <c r="E20" s="6">
         <f t="shared" si="1"/>
-        <v>189.40712318874725</v>
+        <v>189.40712318874719</v>
       </c>
       <c r="F20" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F19</f>
@@ -3257,7 +7550,7 @@
       </c>
       <c r="E21" s="6">
         <f t="shared" si="1"/>
-        <v>199.71180125462504</v>
+        <v>199.71180125462499</v>
       </c>
       <c r="F21" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F20</f>
@@ -3274,7 +7567,7 @@
       </c>
       <c r="E22" s="6">
         <f t="shared" si="1"/>
-        <v>201.18331901931086</v>
+        <v>201.1833190193108</v>
       </c>
       <c r="F22" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F21</f>
@@ -3291,7 +7584,7 @@
       </c>
       <c r="E23" s="6">
         <f t="shared" si="1"/>
-        <v>210.40435009977296</v>
+        <v>210.4043500997729</v>
       </c>
       <c r="F23" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F22</f>
@@ -3308,7 +7601,7 @@
       </c>
       <c r="E24" s="6">
         <f t="shared" si="1"/>
-        <v>211.72112205100461</v>
+        <v>211.72112205100458</v>
       </c>
       <c r="F24" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F23</f>
@@ -3325,7 +7618,7 @@
       </c>
       <c r="E25" s="6">
         <f t="shared" si="1"/>
-        <v>219.97246320336939</v>
+        <v>219.97246320336936</v>
       </c>
       <c r="F25" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F24</f>
@@ -3349,7 +7642,7 @@
       </c>
       <c r="E26" s="6">
         <f t="shared" si="1"/>
-        <v>221.15076251660986</v>
+        <v>221.15076251660983</v>
       </c>
       <c r="F26" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F25</f>
@@ -3379,7 +7672,7 @@
       </c>
       <c r="E27" s="6">
         <f t="shared" si="1"/>
-        <v>228.53438699619426</v>
+        <v>228.53438699619423</v>
       </c>
       <c r="F27" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F26</f>
@@ -3422,7 +7715,7 @@
       </c>
       <c r="E28" s="6">
         <f t="shared" si="1"/>
-        <v>229.5887755486572</v>
+        <v>229.58877554865717</v>
       </c>
       <c r="F28" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F27</f>
@@ -3448,7 +7741,7 @@
       </c>
       <c r="Q28">
         <f>PID!R21</f>
-        <v>3.3302421707047197E-2</v>
+        <v>0.31694378305317089</v>
       </c>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.25">
@@ -3461,7 +7754,7 @@
       </c>
       <c r="E29" s="6">
         <f t="shared" si="1"/>
-        <v>236.19593303358235</v>
+        <v>236.19593303358232</v>
       </c>
       <c r="F29" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F28</f>
@@ -3481,7 +7774,7 @@
       </c>
       <c r="Q29">
         <f>PID!R22</f>
-        <v>0.28364136134612372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.25">
@@ -3494,7 +7787,7 @@
       </c>
       <c r="E30" s="6">
         <f t="shared" si="1"/>
-        <v>237.13944136552519</v>
+        <v>237.13944136552516</v>
       </c>
       <c r="F30" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F29</f>
@@ -3536,7 +7829,7 @@
       </c>
       <c r="E31" s="6">
         <f t="shared" si="1"/>
-        <v>243.05178565542056</v>
+        <v>243.05178565542053</v>
       </c>
       <c r="F31" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F30</f>
@@ -3562,7 +7855,7 @@
       </c>
       <c r="E32" s="6">
         <f t="shared" si="1"/>
-        <v>243.89607400658494</v>
+        <v>243.89607400658491</v>
       </c>
       <c r="F32" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F31</f>
@@ -3595,7 +7888,7 @@
       </c>
       <c r="E33" s="6">
         <f t="shared" si="1"/>
-        <v>249.18667213172625</v>
+        <v>249.18667213172623</v>
       </c>
       <c r="F33" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F32</f>
@@ -3618,7 +7911,7 @@
       </c>
       <c r="E34" s="6">
         <f t="shared" si="1"/>
-        <v>249.94217454307653</v>
+        <v>249.9421745430765</v>
       </c>
       <c r="F34" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F33</f>
@@ -3652,7 +7945,7 @@
       </c>
       <c r="E35" s="6">
         <f t="shared" si="1"/>
-        <v>254.67640975491736</v>
+        <v>254.67640975491733</v>
       </c>
       <c r="F35" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F34</f>
@@ -3685,7 +7978,7 @@
       </c>
       <c r="E36" s="6">
         <f t="shared" si="1"/>
-        <v>255.35246301654166</v>
+        <v>255.35246301654163</v>
       </c>
       <c r="F36" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F35</f>
@@ -3719,7 +8012,7 @@
       </c>
       <c r="E37" s="6">
         <f t="shared" si="1"/>
-        <v>259.58884281914385</v>
+        <v>259.58884281914379</v>
       </c>
       <c r="F37" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F36</f>
@@ -3760,7 +8053,7 @@
       </c>
       <c r="E38" s="6">
         <f t="shared" si="1"/>
-        <v>260.1938018579059</v>
+        <v>260.19380185790584</v>
       </c>
       <c r="F38" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F37</f>
@@ -3777,7 +8070,7 @@
       </c>
       <c r="E39" s="6">
         <f t="shared" si="1"/>
-        <v>263.98468106623261</v>
+        <v>263.98468106623255</v>
       </c>
       <c r="F39" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F38</f>
@@ -3794,7 +8087,7 @@
       </c>
       <c r="E40" s="6">
         <f t="shared" si="1"/>
-        <v>264.52602219917912</v>
+        <v>264.52602219917901</v>
       </c>
       <c r="F40" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F39</f>
@@ -3811,7 +8104,7 @@
       </c>
       <c r="E41" s="6">
         <f t="shared" si="1"/>
-        <v>267.91824996008398</v>
+        <v>267.91824996008393</v>
       </c>
       <c r="F41" s="6">
         <f>'S to Z'!D$16*100+'S to Z'!F$16*100-'S to Z'!H$16*F40</f>
@@ -3828,8 +8121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727FFE7C-F720-4EDE-94D7-8A0054FE9F6D}">
   <dimension ref="D2:W64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3878,7 +8171,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="3">
-        <v>9.5</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
@@ -3905,15 +8198,15 @@
     <row r="8" spans="7:20" x14ac:dyDescent="0.25">
       <c r="H8" s="5">
         <f>AVERAGE(H10:H18,H22:H31)</f>
-        <v>1.9791804342187034</v>
+        <v>0.99078323638186416</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" ref="I8:J8" si="0">AVERAGE(I10:I18,I22:I31)</f>
-        <v>16.702893834054766</v>
+        <v>31.273203997578189</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" si="0"/>
-        <v>4.2941142963005134</v>
+        <v>8.8272294897534351</v>
       </c>
     </row>
     <row r="9" spans="7:20" x14ac:dyDescent="0.25">
@@ -3933,15 +8226,15 @@
       </c>
       <c r="H10" s="6">
         <f>1.2/(H6*H5)</f>
-        <v>1.8859983829310161</v>
+        <v>0.89584923189223264</v>
       </c>
       <c r="I10" s="6">
         <f>2*H5</f>
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J10" s="6">
         <f>I10/4</f>
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="K10" t="s">
         <v>26</v>
@@ -3953,15 +8246,15 @@
       </c>
       <c r="H11" s="6">
         <f>1.2*H4/(H3*H5)</f>
-        <v>1.8859983829310161</v>
+        <v>0.89584923189223264</v>
       </c>
       <c r="I11" s="6">
         <f>I10</f>
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J11" s="6">
         <f>J10</f>
-        <v>4.75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="7:20" x14ac:dyDescent="0.25">
@@ -3970,15 +8263,15 @@
       </c>
       <c r="H12" s="6">
         <f>0.94*H4/(H3*H5)</f>
-        <v>1.4773653999626293</v>
+        <v>0.70174856498224891</v>
       </c>
       <c r="I12" s="6">
         <f>I11</f>
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J12" s="6">
         <f>J11</f>
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="K12" t="s">
         <v>29</v>
@@ -3999,22 +8292,22 @@
       </c>
       <c r="H13" s="6">
         <f>1.25*H4/(H3*H5)</f>
-        <v>1.9645816488864751</v>
+        <v>0.93317628322107571</v>
       </c>
       <c r="I13" s="6">
         <f>2.5*H5</f>
-        <v>23.75</v>
+        <v>50</v>
       </c>
       <c r="J13" s="6">
         <f>0.4*H5</f>
-        <v>3.8000000000000003</v>
+        <v>8</v>
       </c>
       <c r="Q13" t="s">
         <v>32</v>
       </c>
       <c r="R13">
         <f>INT($H$5/R12)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T13" t="s">
         <v>33</v>
@@ -4026,15 +8319,15 @@
       </c>
       <c r="H14" s="6">
         <f>0.95*H4/(H3*H5)</f>
-        <v>1.4930820531537212</v>
+        <v>0.70921397524801755</v>
       </c>
       <c r="I14" s="6">
         <f>2.38*H5</f>
-        <v>22.61</v>
+        <v>47.599999999999994</v>
       </c>
       <c r="J14" s="6">
         <f>0.42*H5</f>
-        <v>3.9899999999999998</v>
+        <v>8.4</v>
       </c>
       <c r="K14" t="s">
         <v>35</v>
@@ -4044,7 +8337,7 @@
       </c>
       <c r="R14">
         <f>H5-R13*R12</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="7:20" x14ac:dyDescent="0.25">
@@ -4053,15 +8346,15 @@
       </c>
       <c r="H15" s="6">
         <f>1.2*H4/(H3*H5)</f>
-        <v>1.8859983829310161</v>
+        <v>0.89584923189223264</v>
       </c>
       <c r="I15" s="6">
         <f>2*H5</f>
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J15" s="6">
         <f>0.42*H5</f>
-        <v>3.9899999999999998</v>
+        <v>8.4</v>
       </c>
       <c r="K15" t="s">
         <v>37</v>
@@ -4073,15 +8366,15 @@
       </c>
       <c r="H16" s="6">
         <f>(1.37/H3)*(H4/H5)^0.95</f>
-        <v>1.9920773232310609</v>
+        <v>0.98212127930323245</v>
       </c>
       <c r="I16" s="6">
         <f>(H4/1.351)*(H5/H4)^0.738</f>
-        <v>10.569303045964421</v>
+        <v>18.308234498297015</v>
       </c>
       <c r="J16" s="6">
         <f>0.365*H4*(H5/H4)^0.95</f>
-        <v>3.7479252033678132</v>
+        <v>7.602072131144598</v>
       </c>
       <c r="K16" t="s">
         <v>39</v>
@@ -4093,15 +8386,15 @@
       </c>
       <c r="H17" s="6">
         <f>(H4/(H3*H5))*(H5/(4*H4) + 4/3)</f>
-        <v>2.1785027617652246</v>
+        <v>1.0783370383887987</v>
       </c>
       <c r="I17" s="6">
         <f>H5*(32*H4+6*H5)/(13*H4+8*H5)</f>
-        <v>21.515128593040846</v>
+        <v>41.879194630872483</v>
       </c>
       <c r="J17" s="6">
         <f>4*H5*H4/(2*H5+11*H4)</f>
-        <v>3.3268482490272375</v>
+        <v>6.7289719626168223</v>
       </c>
     </row>
     <row r="18" spans="7:23" x14ac:dyDescent="0.25">
@@ -4110,15 +8403,15 @@
       </c>
       <c r="H18" s="6">
         <f>(1/H3)*(0.6939*H4/H5+0.1814)</f>
-        <v>1.1507663614725454</v>
+        <v>0.57821261488436904</v>
       </c>
       <c r="I18" s="6">
         <f>(0.8647*H4+0.226*H5)/(H4/H5+0.8647)</f>
-        <v>7.3298565338680239</v>
+        <v>13.94403955437121</v>
       </c>
       <c r="J18" s="6">
         <f>(0.0565*H4)/((0.8647*H4/H5)+0.226)</f>
-        <v>0.58827648355395334</v>
+        <v>1.1708092053003003</v>
       </c>
     </row>
     <row r="19" spans="7:23" x14ac:dyDescent="0.25">
@@ -4127,7 +8420,7 @@
       </c>
       <c r="H19" s="6">
         <f>0.6*H4/(H3*H5)</f>
-        <v>0.94299919146550804</v>
+        <v>0.44792461594611632</v>
       </c>
       <c r="I19" s="6">
         <f>H4</f>
@@ -4135,7 +8428,7 @@
       </c>
       <c r="J19" s="6">
         <f>H5/2</f>
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="K19" t="s">
         <v>35</v>
@@ -4147,7 +8440,7 @@
       </c>
       <c r="H20" s="6">
         <f>0.95*H4/(H3*H5)</f>
-        <v>1.4930820531537212</v>
+        <v>0.70921397524801755</v>
       </c>
       <c r="I20" s="6">
         <f>1.36*H4</f>
@@ -4155,7 +8448,7 @@
       </c>
       <c r="J20" s="6">
         <f>0.46*H5</f>
-        <v>4.37</v>
+        <v>9.2000000000000011</v>
       </c>
       <c r="K20" t="s">
         <v>35</v>
@@ -4177,7 +8470,7 @@
       </c>
       <c r="R21">
         <f>$H$3*(1-R20*EXP(R14/H4))</f>
-        <v>3.3302421707047197E-2</v>
+        <v>0.31694378305317089</v>
       </c>
     </row>
     <row r="22" spans="7:23" x14ac:dyDescent="0.25">
@@ -4186,15 +8479,15 @@
       </c>
       <c r="H22" s="6">
         <f>(1.435/H3)*(H4/H5)^0.921</f>
-        <v>1.994565704412987</v>
+        <v>1.0048081795689807</v>
       </c>
       <c r="I22" s="6">
         <f>(H4/0.878)*(H4/H5)^-0.749</f>
-        <v>15.987361877080813</v>
+        <v>27.921149358194363</v>
       </c>
       <c r="J22" s="6">
         <f>0.482*H4*(H5/H4)^1.137</f>
-        <v>3.7002295156590201</v>
+        <v>8.6263689485966317</v>
       </c>
       <c r="K22" t="s">
         <v>46</v>
@@ -4204,7 +8497,7 @@
       </c>
       <c r="R22">
         <f>H$3*(R20*EXP(R14/H4)-R20)</f>
-        <v>0.28364136134612372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="7:23" x14ac:dyDescent="0.25">
@@ -4213,22 +8506,22 @@
       </c>
       <c r="H23" s="6">
         <f>(3/H3)*(H4/H5)^0.921</f>
-        <v>4.1698237722919584</v>
+        <v>2.1006442778445589</v>
       </c>
       <c r="I23" s="6">
         <f>(H4/0.878)*(H4/H5)^-0.749</f>
-        <v>15.987361877080813</v>
+        <v>27.921149358194363</v>
       </c>
       <c r="J23" s="6">
         <f>0.482*H4*(H5/H4)^1.137</f>
-        <v>3.7002295156590201</v>
+        <v>8.6263689485966317</v>
       </c>
       <c r="Q23" t="s">
         <v>49</v>
       </c>
       <c r="R23">
         <f>R13</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="7:23" x14ac:dyDescent="0.25">
@@ -4237,15 +8530,15 @@
       </c>
       <c r="H24" s="6">
         <f>(1.495/H3)*(H4/H5)^0.945</f>
-        <v>2.1569961636320008</v>
+        <v>1.0673941881251006</v>
       </c>
       <c r="I24" s="6">
         <f>(H4/1.101)*(H4/H5)^-0.771</f>
-        <v>12.320355696311637</v>
+        <v>21.87220024663111</v>
       </c>
       <c r="J24" s="6">
         <f>0.56*H4*(H5/H4)^1.006</f>
-        <v>5.2705835090643767</v>
+        <v>11.145637848451077</v>
       </c>
       <c r="K24" t="s">
         <v>46</v>
@@ -4262,14 +8555,14 @@
       </c>
       <c r="T24" s="8">
         <f>R21</f>
-        <v>3.3302421707047197E-2</v>
+        <v>0.31694378305317089</v>
       </c>
       <c r="U24" s="8" t="s">
         <v>117</v>
       </c>
       <c r="V24" s="8">
         <f>R22</f>
-        <v>0.28364136134612372</v>
+        <v>0</v>
       </c>
       <c r="W24" s="8" t="s">
         <v>118</v>
@@ -4281,15 +8574,15 @@
       </c>
       <c r="H25" s="6">
         <f>(1.473/H3)*(H4/H5)^0.97</f>
-        <v>2.209521081309481</v>
+        <v>1.0732254206393896</v>
       </c>
       <c r="I25" s="6">
         <f>(H4/1.115)*(H4/H5)^-0.753</f>
-        <v>12.511071276328561</v>
+        <v>21.915138024974173</v>
       </c>
       <c r="J25" s="6">
         <f>0.55*H4*(H5/H4)^0.948</f>
-        <v>5.6651539728916482</v>
+        <v>11.473770956714009</v>
       </c>
       <c r="K25" t="s">
         <v>46</v>
@@ -4298,15 +8591,15 @@
     <row r="26" spans="7:23" x14ac:dyDescent="0.25">
       <c r="H26" s="6">
         <f>(1.524/H3)*(H4/H5)^0.735</f>
-        <v>1.5861361971007986</v>
+        <v>0.9177201751102424</v>
       </c>
       <c r="I26" s="6">
         <f>(H4/1.13)*(H4/H5)^-0.641</f>
-        <v>14.694190976396179</v>
+        <v>23.680184194071355</v>
       </c>
       <c r="J26" s="6">
         <f>0.552*H4*(H5/H4)^0.851</f>
-        <v>6.6116602770670188</v>
+        <v>12.457883595897389</v>
       </c>
       <c r="K26" t="s">
         <v>54</v>
@@ -4318,15 +8611,15 @@
       </c>
       <c r="H27" s="6">
         <f>(1.357/H3)*(H4/H5)^0.947</f>
-        <v>1.9639887940352962</v>
+        <v>0.97043813340164831</v>
       </c>
       <c r="I27" s="6">
         <f>(H4/0.842)*(H4/H5)^-0.738</f>
-        <v>16.9585848160308</v>
+        <v>29.375801433728345</v>
       </c>
       <c r="J27" s="6">
         <f>0.381*H4*(H5/H4)^0.995</f>
-        <v>3.6477580580523741</v>
+        <v>7.650959163125413</v>
       </c>
       <c r="K27" t="s">
         <v>46</v>
@@ -4348,15 +8641,15 @@
       </c>
       <c r="H28" s="6">
         <f>(1.468/H3)*(H4/H5)^0.97</f>
-        <v>2.2020210097503852</v>
+        <v>1.0695824287159699</v>
       </c>
       <c r="I28" s="6">
         <f>(H4/0.942)*(H4/H5)^-0.725</f>
-        <v>15.46792837307474</v>
+        <v>26.535622813992955</v>
       </c>
       <c r="J28" s="6">
         <f>0.443*H4*(H5/H4)^0.939</f>
-        <v>4.6273479260277712</v>
+        <v>9.3092963443679313</v>
       </c>
       <c r="K28" t="s">
         <v>46</v>
@@ -4366,21 +8659,21 @@
       </c>
       <c r="V28">
         <f>EXP(R14/V27)</f>
-        <v>1.1051709180756475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="7:23" x14ac:dyDescent="0.25">
       <c r="H29" s="6">
         <f>(1.515/H3)*(H4/H5)^0.73</f>
-        <v>1.5645545053611583</v>
+        <v>0.90860899636801951</v>
       </c>
       <c r="I29" s="6">
         <f>(H4/0.957)*(H4/H5)^-0.598</f>
-        <v>18.550610582001774</v>
+        <v>28.953123988854113</v>
       </c>
       <c r="J29" s="6">
         <f>0.444*H4*(H5/H4)^0.847</f>
-        <v>5.3512640166953336</v>
+        <v>10.053027974138942</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
@@ -4393,15 +8686,15 @@
       </c>
       <c r="H30" s="6">
         <f>(1.531/H$3)*(H$4/H$5)^0.96</f>
-        <v>2.2610788328201741</v>
+        <v>1.1064749077200613</v>
       </c>
       <c r="I30" s="6">
         <f>(H$4/0.971)*(H$4/H$5)^-0.746</f>
-        <v>14.523743091605439</v>
+        <v>25.308425377379422</v>
       </c>
       <c r="J30" s="6">
         <f>0.413*H$4*(H$5/H$4)^0.933</f>
-        <v>4.3544310067282046</v>
+        <v>8.7212006007827707</v>
       </c>
       <c r="K30" t="s">
         <v>46</v>
@@ -4410,15 +8703,15 @@
     <row r="31" spans="7:23" x14ac:dyDescent="0.25">
       <c r="H31" s="6">
         <f>(1.592/H$3)*(H$4/H$5)^0.705</f>
-        <v>1.5813714921764181</v>
+        <v>0.9356273320570081</v>
       </c>
       <c r="I31" s="6">
         <f>(H$4/0.957)*(H$4/H$5)^-0.597</f>
-        <v>18.579486108256571</v>
+        <v>28.976612474424687</v>
       </c>
       <c r="J31" s="6">
         <f>0.414*H$4*(H$5/H$4)^0.85</f>
-        <v>4.9664638959159859</v>
+        <v>9.350992625582764</v>
       </c>
       <c r="K31" t="s">
         <v>54</v>
@@ -4431,9 +8724,9 @@
       <c r="U32" t="s">
         <v>61</v>
       </c>
-      <c r="V32">
+      <c r="V32" t="e">
         <f>R22/(R20*(EXP(R14/V27)-1))</f>
-        <v>3.0139000000000062</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="W32" t="s">
         <v>5</v>
@@ -4445,15 +8738,15 @@
       </c>
       <c r="H33" s="6">
         <f>(1.086/H$3)*(H$4/H$5)^0.869</f>
-        <v>1.3921974957506555</v>
+        <v>0.72903368438623872</v>
       </c>
       <c r="I33" s="6">
         <f>H$4/(0.74 - 0.13*H$5/H$4)</f>
-        <v>63.152970528613757</v>
+        <v>65.960912052117266</v>
       </c>
       <c r="J33" s="6">
         <f>0.348*H$4*(H$5/H$4)^0.914</f>
-        <v>3.7791566596951602</v>
+        <v>7.4627163725200178</v>
       </c>
       <c r="K33" t="s">
         <v>46</v>
@@ -4461,9 +8754,9 @@
       <c r="U33" t="s">
         <v>63</v>
       </c>
-      <c r="V33">
+      <c r="V33" t="e">
         <f>R22/(R20*R14/V27)</f>
-        <v>3.1697462998819468</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="4:22" x14ac:dyDescent="0.25">
@@ -4472,15 +8765,15 @@
       </c>
       <c r="H34" s="6">
         <f>(0.7645+0.6032*H$4/H$5)*(H$4 + 0.5*H$5)/(H$3*(H$4 + H$5))</f>
-        <v>1.0969524207883481</v>
+        <v>0.59566827545194434</v>
       </c>
       <c r="I34" s="6">
         <f>H$4 + 0.5*H$5</f>
-        <v>49.75</v>
+        <v>55</v>
       </c>
       <c r="J34" s="6">
         <f>0.5*H$4*H$5/(H$4 + 0.5*H$5)</f>
-        <v>4.2964824120603016</v>
+        <v>8.1818181818181817</v>
       </c>
       <c r="K34" t="s">
         <v>65</v>
@@ -4492,15 +8785,15 @@
       </c>
       <c r="H35" s="6">
         <f>(0.9255+0.7524*H$4/H$5)*(H$4 + 0.5*H$5)/(H$3*(H$4 + H$5))</f>
-        <v>1.3597708294078414</v>
+        <v>0.73511703466247413</v>
       </c>
       <c r="I35" s="6">
         <f>H$4 + 0.5*H$5</f>
-        <v>49.75</v>
+        <v>55</v>
       </c>
       <c r="J35" s="6">
         <f>0.5*H$4*H$5/(H$4 + 0.5*H$5)</f>
-        <v>4.2964824120603016</v>
+        <v>8.1818181818181817</v>
       </c>
       <c r="K35" t="s">
         <v>65</v>
@@ -4512,15 +8805,15 @@
       </c>
       <c r="H36" s="6">
         <f>(1.048/H$3)*(H$4/H$5)^0.897</f>
-        <v>1.403285362175873</v>
+        <v>0.71968120827358717</v>
       </c>
       <c r="I36" s="6">
         <f>H$4/(1.195 - 0.368*H$5/H$4)</f>
-        <v>40.275264026730838</v>
+        <v>43.62813745556393</v>
       </c>
       <c r="J36" s="6">
         <f>0.489*H$4*(H$5/H$4)^0.888</f>
-        <v>5.529517312760559</v>
+        <v>10.709847745615557</v>
       </c>
       <c r="K36" t="s">
         <v>46</v>
@@ -4529,15 +8822,15 @@
     <row r="37" spans="4:22" x14ac:dyDescent="0.25">
       <c r="H37" s="6">
         <f>(1.154/H$3)*(H$4/H$5)^0.567</f>
-        <v>0.92486678211395501</v>
+        <v>0.60640735214792041</v>
       </c>
       <c r="I37" s="6">
         <f>H$4/(1.047 - 0.22*H$5/H$4)</f>
-        <v>44.975013881177127</v>
+        <v>47.407233992742597</v>
       </c>
       <c r="J37" s="6">
         <f>0.49*H$4*(H$5/H$4)^0.708</f>
-        <v>7.3309869530852882</v>
+        <v>12.418334990859471</v>
       </c>
       <c r="K37" t="s">
         <v>54</v>
@@ -4549,15 +8842,15 @@
       </c>
       <c r="H38" s="6">
         <f>(0.965/H$3)*(H$4/H$5)^0.85</f>
-        <v>1.2010581845686161</v>
+        <v>0.63790148804471813</v>
       </c>
       <c r="I38" s="6">
         <f>H$4/(0.796 - 0.1465*H$5/H$4)</f>
-        <v>58.817976516378259</v>
+        <v>61.568865916691998</v>
       </c>
       <c r="J38" s="6">
         <f>0.308*H$4*(H$5/H$4)^0.929</f>
-        <v>3.267638725161532</v>
+        <v>6.5250774501740532</v>
       </c>
       <c r="K38" t="s">
         <v>46</v>
@@ -4569,15 +8862,15 @@
       </c>
       <c r="H39" s="6">
         <f>(1.2/H$3)*(H$4/H$5)^0.855</f>
-        <v>1.5052042098219873</v>
+        <v>0.79646823632280583</v>
       </c>
       <c r="I39" s="6">
         <f>H$4/(0.796 - 0.147*H$5/H$4)</f>
-        <v>58.826092640202184</v>
+        <v>61.587591240875909</v>
       </c>
       <c r="J39" s="6">
         <f>0.308*H$4*(H$5/H$4)^0.929</f>
-        <v>3.267638725161532</v>
+        <v>6.5250774501740532</v>
       </c>
       <c r="K39" t="s">
         <v>69</v>
@@ -4589,15 +8882,15 @@
       </c>
       <c r="H40" s="6">
         <f>(0.7303+0.5307*H$4/H$5)*(H$4 + 0.5*H$5)/(H$3*(H$4 + H$5))</f>
-        <v>0.98257930753771794</v>
+        <v>0.54026918865666007</v>
       </c>
       <c r="I40" s="6">
         <f>H$4 + 0.5*H$5</f>
-        <v>49.75</v>
+        <v>55</v>
       </c>
       <c r="J40" s="6">
         <f>0.5*H$4*H$5/(H$4 + 0.5*H$5)</f>
-        <v>4.2964824120603016</v>
+        <v>8.1818181818181817</v>
       </c>
       <c r="K40" t="s">
         <v>65</v>
@@ -4609,15 +8902,15 @@
       </c>
       <c r="H41" s="6">
         <f>(1.042/H$3)*(H$4/H$5)^0.897</f>
-        <v>1.395251285674866</v>
+        <v>0.71556089601247885</v>
       </c>
       <c r="I41" s="6">
         <f>H$4/(0.987 - 0.238*H$5/H$4)</f>
-        <v>48.038145846183042</v>
+        <v>51.065439414953978</v>
       </c>
       <c r="J41" s="6">
         <f>0.385*H$4*(H$5/H$4)^0.906</f>
-        <v>4.233312141679991</v>
+        <v>8.309901612813519</v>
       </c>
       <c r="K41" t="s">
         <v>46</v>
@@ -4626,15 +8919,15 @@
     <row r="42" spans="4:22" x14ac:dyDescent="0.25">
       <c r="H42" s="6">
         <f>(1.142/H$3)*(H$4/H$5)^0.597</f>
-        <v>0.95896806276662172</v>
+        <v>0.61487980405438725</v>
       </c>
       <c r="I42" s="6">
         <f>H$4/(0.919 - 0.172*H$5/H$4)</f>
-        <v>50.980589612547512</v>
+        <v>53.408941052353946</v>
       </c>
       <c r="J42" s="6">
         <f>0.384*H$4*(H$5/H$4)^0.839</f>
-        <v>4.6860675416972262</v>
+        <v>8.7510991705405985</v>
       </c>
       <c r="K42" t="s">
         <v>54</v>
@@ -4646,15 +8939,15 @@
       </c>
       <c r="H43" s="6">
         <f>(0.968/H$3)*(H$4/H$5)^0.904</f>
-        <v>1.3103535574117264</v>
+        <v>0.66852786703044753</v>
       </c>
       <c r="I43" s="6">
         <f>H$4/(0.977 - 0.253*H$5/H$4)</f>
-        <v>48.722976793426611</v>
+        <v>52.049865055905414</v>
       </c>
       <c r="J43" s="6">
         <f>0.316*H$4*(H$5/H$4)^0.892</f>
-        <v>3.5511048053913403</v>
+        <v>6.8984701629770893</v>
       </c>
       <c r="K43" t="s">
         <v>46</v>
@@ -4663,15 +8956,15 @@
     <row r="44" spans="4:22" x14ac:dyDescent="0.25">
       <c r="H44" s="6">
         <f>(1.061/H$3)*(H$4/H$5)^0.583</f>
-        <v>0.8717592797001491</v>
+        <v>0.56481855247979817</v>
       </c>
       <c r="I44" s="6">
         <f>H$4/(0.892 - 0.165*H$5/H$4)</f>
-        <v>52.498541707174802</v>
+        <v>54.967426710097719</v>
       </c>
       <c r="J44" s="6">
         <f>0.315*H$4*(H$5/H$4)^0.832</f>
-        <v>3.8861207927868202</v>
+        <v>7.2195015254277628</v>
       </c>
       <c r="K44" t="s">
         <v>54</v>
@@ -4686,7 +8979,7 @@
       </c>
       <c r="H46" s="6">
         <f>5*H$4/(6*H$3*H$5)</f>
-        <v>1.30972109925765</v>
+        <v>0.62211752214738381</v>
       </c>
       <c r="I46" s="6">
         <f>H$4</f>
@@ -4694,7 +8987,7 @@
       </c>
       <c r="J46" s="6">
         <f>0.5*H$5</f>
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="K46" t="s">
         <v>46</v>
@@ -4703,7 +8996,7 @@
     <row r="47" spans="4:22" x14ac:dyDescent="0.25">
       <c r="H47" s="6">
         <f>H$4/(2*H$3*H$5)</f>
-        <v>0.78583265955459003</v>
+        <v>0.37327051328843031</v>
       </c>
       <c r="I47" s="6">
         <f>H$4</f>
@@ -4711,7 +9004,7 @@
       </c>
       <c r="J47" s="6">
         <f>0.5*H$5</f>
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="K47" t="s">
         <v>73</v>
@@ -4723,15 +9016,15 @@
       </c>
       <c r="H48" s="6">
         <f>(1/H$3)*(0.7236*H$4/H$5+0.2236)</f>
-        <v>1.2114466131485517</v>
+        <v>0.6143866750721656</v>
       </c>
       <c r="I48" s="6">
         <f>H$4+0.309*H$5</f>
-        <v>47.935499999999998</v>
+        <v>51.18</v>
       </c>
       <c r="J48" s="6">
         <f>2.236*H$4*H$5/(7.236*H$4 + 2.236*H$5)</f>
-        <v>2.7558222001833581</v>
+        <v>5.4339255818977152</v>
       </c>
     </row>
     <row r="49" spans="4:15" x14ac:dyDescent="0.25">
@@ -4740,15 +9033,15 @@
       </c>
       <c r="H49" s="6">
         <f>(0.177+0.348*(H$5/H$4)^-1.002)/(0.531-0.359*M49^0.713)</f>
-        <v>3.4473763618452771</v>
+        <v>1.8103031018632723</v>
       </c>
       <c r="I49" s="6">
         <f>H$4+0.5*H$5</f>
-        <v>49.75</v>
+        <v>55</v>
       </c>
       <c r="J49" s="6">
         <f>H$4*H$5/(2*H$4 + H$5)</f>
-        <v>4.2964824120603016</v>
+        <v>8.1818181818181817</v>
       </c>
       <c r="K49" t="s">
         <v>76</v>
@@ -4763,15 +9056,15 @@
       </c>
       <c r="H50" s="6">
         <f>(1.0722/H$3)*((O50^-0.116)/(M50^0.8432))*(H$5/H$4)^-0.908</f>
-        <v>0.5486764694121935</v>
+        <v>0.27909633463197947</v>
       </c>
       <c r="I50" s="6">
         <f>(1.2479*$H$4*($O50^1.0082)/($M50^0.2099))*($H$5/$H$4)^0.3678</f>
-        <v>845.26897903072972</v>
+        <v>1111.4937404560199</v>
       </c>
       <c r="J50" s="6">
         <f>(0.4763*$H$4*($O50^-0.328)/($M50^0.0961))*($H$5/$H$4)^1.0317</f>
-        <v>1.3205852258779973</v>
+        <v>2.8465684872683674</v>
       </c>
       <c r="L50" t="s">
         <v>78</v>
@@ -4800,15 +9093,15 @@
       </c>
       <c r="H52" s="6">
         <f>(1/H$3)*(H$4 + 0.5*H$5)/(M52*H$5)</f>
-        <v>4.9644666429004261</v>
+        <v>2.6069686642366561</v>
       </c>
       <c r="I52" s="6">
         <f>H$4 + 0.5*H$5</f>
-        <v>49.75</v>
+        <v>55</v>
       </c>
       <c r="J52" s="6">
         <f>H$4*H$5/(2*H$4+H$5)</f>
-        <v>4.2964824120603016</v>
+        <v>8.1818181818181817</v>
       </c>
       <c r="L52" t="s">
         <v>82</v>
@@ -4823,15 +9116,15 @@
       </c>
       <c r="H53" s="6">
         <f>(1/H$3)*(H$4 + 0.5*H$5)/(M53 + 0.5*H$5)</f>
-        <v>3.2366375662046893</v>
+        <v>1.7631672125272069</v>
       </c>
       <c r="I53" s="6">
         <f>H$4 + 0.5*H$5</f>
-        <v>49.75</v>
+        <v>55</v>
       </c>
       <c r="J53" s="6">
         <f>H$4*H$5/(2*H$4+H$5)</f>
-        <v>4.2964824120603016</v>
+        <v>8.1818181818181817</v>
       </c>
       <c r="L53" t="s">
         <v>82</v>
@@ -4846,15 +9139,15 @@
       </c>
       <c r="H54" s="6">
         <f>5*H$4/(9*H$5*H$3)</f>
-        <v>0.87314739950510012</v>
+        <v>0.41474501476492254</v>
       </c>
       <c r="I54" s="6">
         <f>5*H$5</f>
-        <v>47.5</v>
+        <v>100</v>
       </c>
       <c r="J54" s="6">
         <f>0.5*H$5</f>
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="K54" t="s">
         <v>85</v>
@@ -4863,7 +9156,7 @@
     <row r="55" spans="4:15" x14ac:dyDescent="0.25">
       <c r="H55" s="6">
         <f>H$4/(2*H$5*H$3)</f>
-        <v>0.78583265955459003</v>
+        <v>0.37327051328843031</v>
       </c>
       <c r="I55" s="6">
         <f>H$4</f>
@@ -4871,7 +9164,7 @@
       </c>
       <c r="J55" s="6">
         <f>0.5*H$5</f>
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="K55" t="s">
         <v>86</v>
@@ -4883,22 +9176,22 @@
       </c>
       <c r="H56" s="6">
         <f>H$4/(H$3*(M56+H$5))</f>
-        <v>1.1787489893318852</v>
+        <v>0.5599057699326454</v>
       </c>
       <c r="I56" s="6">
         <f>H$4 + H$5*H$5/(2*(M56+H$5))</f>
-        <v>48.5625</v>
+        <v>52.5</v>
       </c>
       <c r="J56" s="6">
         <f>H$5*H$5*(1 - H$5/(3*H$4))/(2*(M56+H$5))</f>
-        <v>3.3118055555555554</v>
+        <v>6.3888888888888893</v>
       </c>
       <c r="L56" t="s">
         <v>82</v>
       </c>
       <c r="M56" s="8">
         <f>H$5/3</f>
-        <v>3.1666666666666665</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="57" spans="4:15" x14ac:dyDescent="0.25">
@@ -4912,15 +9205,15 @@
       </c>
       <c r="H58" s="6">
         <f>(0.91/H$3)*(H$4/H$5)^0.7938</f>
-        <v>1.0378047386777944</v>
+        <v>0.5747447814928841</v>
       </c>
       <c r="I58" s="6">
         <f>(H$4/1.01495)*(H$4/H$5)^-1.00403</f>
-        <v>9.301580244838318</v>
+        <v>19.641111098824162</v>
       </c>
       <c r="J58" s="6">
         <f>0.5414*H$4*(H$5/H$4)^0.7848</f>
-        <v>7.1879834720877902</v>
+        <v>12.892523301136944</v>
       </c>
       <c r="K58" t="s">
         <v>89</v>
@@ -4932,15 +9225,15 @@
       </c>
       <c r="H59" s="6">
         <f>(1.1147/H$3)*(H$4/H$5)^0.8992</f>
-        <v>1.4977136542010212</v>
+        <v>0.76685222660355468</v>
       </c>
       <c r="I59" s="6">
         <f>(H$4/0.9324)*(H$4/H$5)^-0.8753</f>
-        <v>12.369575830209737</v>
+        <v>23.732576574527222</v>
       </c>
       <c r="J59" s="6">
         <f>0.56508*H$4*(H$5/H$4)^0.91107</f>
-        <v>6.1645981328805108</v>
+        <v>12.146734068947364</v>
       </c>
       <c r="K59" t="s">
         <v>91</v>
@@ -4952,15 +9245,15 @@
       </c>
       <c r="H60" s="6">
         <f>(0.7058/H$3)*(H$4/H$5)^0.8872</f>
-        <v>0.93077899753546323</v>
+        <v>0.48084947431403136</v>
       </c>
       <c r="I60" s="6">
         <f>(H$4/1.03326)*(H$4/H$5)^-0.99138</f>
-        <v>9.3183003054082878</v>
+        <v>19.49199053612541</v>
       </c>
       <c r="J60" s="6">
         <f>0.60006*H$4*(H$5/H$4)^0.971</f>
-        <v>5.963585653459174</v>
+        <v>12.286776724792443</v>
       </c>
       <c r="K60" t="s">
         <v>93</v>
@@ -4975,15 +9268,15 @@
       </c>
       <c r="H61" s="6">
         <f>(0.81699/H$3)*(H$4/H$5)^1.004</f>
-        <v>1.2920483518282255</v>
+        <v>0.61189816451212053</v>
       </c>
       <c r="I61" s="6">
         <f>H$4/(1.09112 - 0.22387*H$5/H$4)</f>
-        <v>43.109288859591125</v>
+        <v>45.380185106335297</v>
       </c>
       <c r="J61" s="6">
         <f>0.44278*H$4*(H$5/H$4)^0.97186</f>
-        <v>4.3946051376804585</v>
+        <v>9.0600043804872534</v>
       </c>
       <c r="K61" t="s">
         <v>95</v>
@@ -4995,15 +9288,15 @@
       </c>
       <c r="H62" s="6">
         <f>(1.1427/H$3)*(H$4/H$5)^0.9365</f>
-        <v>1.6270419544524002</v>
+        <v>0.81025611454556801</v>
       </c>
       <c r="I62" s="6">
         <f>H$4/(0.99223 - 0.35269*H$5/H$4)</f>
-        <v>49.031720375367485</v>
+        <v>53.861325041792398</v>
       </c>
       <c r="J62" s="6">
         <f>0.35308*H$4*(H$5/H$4)^0.78088</f>
-        <v>4.7163915524815705</v>
+        <v>8.434771985659026</v>
       </c>
       <c r="K62" t="s">
         <v>96</v>
@@ -5015,15 +9308,15 @@
       </c>
       <c r="H63" s="6">
         <f>(0.8326/H$3)*(H$4/H$5)^0.7607</f>
-        <v>0.90188669635519003</v>
+        <v>0.51193262730339495</v>
       </c>
       <c r="I63" s="6">
         <f>H$4/(1.00268 + 0.00854*H$5/H$4)</f>
-        <v>44.799170297243052</v>
+        <v>44.710474836282387</v>
       </c>
       <c r="J63" s="6">
         <f>0.44243*H$4*(H$5/H$4)^1.11499</f>
-        <v>3.5147440414966518</v>
+        <v>8.060780506404603</v>
       </c>
       <c r="K63" t="s">
         <v>97</v>
@@ -5159,7 +9452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3E05E8-DE1F-4A8D-9CE8-CF35615A4ECE}">
   <dimension ref="C19:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
@@ -5307,4 +9600,2289 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175F9EC0-DA6A-4CE0-93CC-D91BEFE5CC79}">
+  <dimension ref="C1:V78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6">
+        <v>31</v>
+      </c>
+      <c r="F3" s="6">
+        <v>29</v>
+      </c>
+      <c r="G3" s="6">
+        <v>33</v>
+      </c>
+      <c r="H3" s="6">
+        <v>32</v>
+      </c>
+      <c r="I3" s="6">
+        <v>35</v>
+      </c>
+      <c r="J3" s="6">
+        <v>32</v>
+      </c>
+      <c r="K3" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>28</v>
+      </c>
+      <c r="E4" s="6">
+        <v>31</v>
+      </c>
+      <c r="F4" s="6">
+        <v>29</v>
+      </c>
+      <c r="G4" s="6">
+        <v>33</v>
+      </c>
+      <c r="H4" s="6">
+        <v>32</v>
+      </c>
+      <c r="I4" s="6">
+        <v>35</v>
+      </c>
+      <c r="J4" s="6">
+        <v>32</v>
+      </c>
+      <c r="K4" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <f>C4+4</f>
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>34</v>
+      </c>
+      <c r="E5" s="6">
+        <v>31</v>
+      </c>
+      <c r="F5" s="6">
+        <v>29</v>
+      </c>
+      <c r="G5" s="6">
+        <v>33</v>
+      </c>
+      <c r="H5" s="6">
+        <v>36</v>
+      </c>
+      <c r="I5" s="6">
+        <v>35</v>
+      </c>
+      <c r="J5" s="6">
+        <v>36</v>
+      </c>
+      <c r="K5" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:C64" si="0">C5+4</f>
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>40</v>
+      </c>
+      <c r="E6" s="6">
+        <v>31</v>
+      </c>
+      <c r="F6" s="6">
+        <v>29</v>
+      </c>
+      <c r="G6" s="6">
+        <v>33</v>
+      </c>
+      <c r="H6" s="6">
+        <v>42</v>
+      </c>
+      <c r="I6" s="6">
+        <v>35</v>
+      </c>
+      <c r="J6" s="6">
+        <v>42</v>
+      </c>
+      <c r="K6" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>46</v>
+      </c>
+      <c r="E7" s="6">
+        <v>31</v>
+      </c>
+      <c r="F7" s="6">
+        <v>29</v>
+      </c>
+      <c r="G7" s="6">
+        <v>32</v>
+      </c>
+      <c r="H7" s="6">
+        <v>51</v>
+      </c>
+      <c r="I7" s="6">
+        <v>35</v>
+      </c>
+      <c r="J7" s="6">
+        <v>48</v>
+      </c>
+      <c r="K7" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D8" s="1">
+        <v>53</v>
+      </c>
+      <c r="E8" s="6">
+        <v>31</v>
+      </c>
+      <c r="F8" s="6">
+        <v>30</v>
+      </c>
+      <c r="G8" s="6">
+        <v>33</v>
+      </c>
+      <c r="H8" s="6">
+        <v>60</v>
+      </c>
+      <c r="I8" s="6">
+        <v>35</v>
+      </c>
+      <c r="J8" s="6">
+        <v>55</v>
+      </c>
+      <c r="K8" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D9" s="1">
+        <v>59</v>
+      </c>
+      <c r="E9" s="6">
+        <v>32</v>
+      </c>
+      <c r="F9" s="6">
+        <v>30</v>
+      </c>
+      <c r="G9" s="6">
+        <v>33</v>
+      </c>
+      <c r="H9" s="6">
+        <v>69</v>
+      </c>
+      <c r="I9" s="6">
+        <v>35</v>
+      </c>
+      <c r="J9" s="6">
+        <v>60</v>
+      </c>
+      <c r="K9" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D10" s="1">
+        <v>65</v>
+      </c>
+      <c r="E10" s="6">
+        <v>33</v>
+      </c>
+      <c r="F10" s="6">
+        <v>32</v>
+      </c>
+      <c r="G10" s="6">
+        <v>33</v>
+      </c>
+      <c r="H10" s="6">
+        <v>76</v>
+      </c>
+      <c r="I10" s="6">
+        <v>35</v>
+      </c>
+      <c r="J10" s="6">
+        <v>65</v>
+      </c>
+      <c r="K10" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D11" s="1">
+        <v>73</v>
+      </c>
+      <c r="E11" s="6">
+        <v>34</v>
+      </c>
+      <c r="F11" s="6">
+        <v>34</v>
+      </c>
+      <c r="G11" s="6">
+        <v>33</v>
+      </c>
+      <c r="H11" s="6">
+        <v>80</v>
+      </c>
+      <c r="I11" s="6">
+        <v>36</v>
+      </c>
+      <c r="J11" s="6">
+        <v>68</v>
+      </c>
+      <c r="K11" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D12" s="1">
+        <v>78</v>
+      </c>
+      <c r="E12" s="6">
+        <v>36</v>
+      </c>
+      <c r="F12" s="6">
+        <v>40</v>
+      </c>
+      <c r="G12" s="6">
+        <v>33</v>
+      </c>
+      <c r="H12" s="6">
+        <v>83</v>
+      </c>
+      <c r="I12" s="6">
+        <v>38</v>
+      </c>
+      <c r="J12" s="6">
+        <v>70</v>
+      </c>
+      <c r="K12" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D13" s="1">
+        <v>84</v>
+      </c>
+      <c r="E13" s="6">
+        <v>43</v>
+      </c>
+      <c r="F13" s="6">
+        <v>51</v>
+      </c>
+      <c r="G13" s="6">
+        <v>33</v>
+      </c>
+      <c r="H13" s="6">
+        <v>85</v>
+      </c>
+      <c r="I13" s="6">
+        <v>41</v>
+      </c>
+      <c r="J13" s="6">
+        <v>71</v>
+      </c>
+      <c r="K13" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D14" s="1">
+        <v>90</v>
+      </c>
+      <c r="E14" s="6">
+        <v>54</v>
+      </c>
+      <c r="F14" s="6">
+        <v>65</v>
+      </c>
+      <c r="G14" s="6">
+        <v>34</v>
+      </c>
+      <c r="H14" s="6">
+        <v>87</v>
+      </c>
+      <c r="I14" s="6">
+        <v>48</v>
+      </c>
+      <c r="J14" s="6">
+        <v>72</v>
+      </c>
+      <c r="K14" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D15" s="1">
+        <v>98</v>
+      </c>
+      <c r="E15" s="6">
+        <v>67</v>
+      </c>
+      <c r="F15" s="6">
+        <v>80</v>
+      </c>
+      <c r="G15" s="6">
+        <v>35</v>
+      </c>
+      <c r="H15" s="6">
+        <v>87</v>
+      </c>
+      <c r="I15" s="6">
+        <v>57</v>
+      </c>
+      <c r="J15" s="6">
+        <v>73</v>
+      </c>
+      <c r="K15" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D16" s="1">
+        <v>104</v>
+      </c>
+      <c r="E16" s="6">
+        <v>81</v>
+      </c>
+      <c r="F16" s="6">
+        <v>94</v>
+      </c>
+      <c r="G16" s="6">
+        <v>35</v>
+      </c>
+      <c r="H16" s="6">
+        <v>87</v>
+      </c>
+      <c r="I16" s="6">
+        <v>69</v>
+      </c>
+      <c r="J16" s="6">
+        <v>74</v>
+      </c>
+      <c r="K16" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D17" s="1">
+        <v>110</v>
+      </c>
+      <c r="E17" s="6">
+        <v>93</v>
+      </c>
+      <c r="F17" s="6">
+        <v>109</v>
+      </c>
+      <c r="G17" s="6">
+        <v>38</v>
+      </c>
+      <c r="H17" s="6">
+        <v>88</v>
+      </c>
+      <c r="I17" s="6">
+        <v>80</v>
+      </c>
+      <c r="J17" s="6">
+        <v>75</v>
+      </c>
+      <c r="K17" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D18" s="1">
+        <v>116</v>
+      </c>
+      <c r="E18" s="6">
+        <v>107</v>
+      </c>
+      <c r="F18" s="6">
+        <v>122</v>
+      </c>
+      <c r="G18" s="6">
+        <v>40</v>
+      </c>
+      <c r="H18" s="6">
+        <v>89</v>
+      </c>
+      <c r="I18" s="6">
+        <v>89</v>
+      </c>
+      <c r="J18" s="6">
+        <v>77</v>
+      </c>
+      <c r="K18" s="6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D19" s="1">
+        <v>120</v>
+      </c>
+      <c r="E19" s="6">
+        <v>119</v>
+      </c>
+      <c r="F19" s="6">
+        <v>134</v>
+      </c>
+      <c r="G19" s="6">
+        <v>43</v>
+      </c>
+      <c r="H19" s="6">
+        <v>89</v>
+      </c>
+      <c r="I19" s="6">
+        <v>95</v>
+      </c>
+      <c r="J19" s="6">
+        <v>79</v>
+      </c>
+      <c r="K19" s="6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="D20" s="1">
+        <v>121</v>
+      </c>
+      <c r="E20" s="6">
+        <v>128</v>
+      </c>
+      <c r="F20" s="6">
+        <v>144</v>
+      </c>
+      <c r="G20" s="6">
+        <v>47</v>
+      </c>
+      <c r="H20" s="6">
+        <v>91</v>
+      </c>
+      <c r="I20" s="6">
+        <v>100</v>
+      </c>
+      <c r="J20" s="6">
+        <v>84</v>
+      </c>
+      <c r="K20" s="6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D21" s="1">
+        <v>122</v>
+      </c>
+      <c r="E21" s="6">
+        <v>134</v>
+      </c>
+      <c r="F21" s="6">
+        <v>151</v>
+      </c>
+      <c r="G21" s="6">
+        <v>52</v>
+      </c>
+      <c r="H21" s="6">
+        <v>92</v>
+      </c>
+      <c r="I21" s="6">
+        <v>103</v>
+      </c>
+      <c r="J21" s="6">
+        <v>90</v>
+      </c>
+      <c r="K21" s="6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="D22" s="1">
+        <v>123</v>
+      </c>
+      <c r="E22" s="6">
+        <v>137</v>
+      </c>
+      <c r="F22" s="6">
+        <v>155</v>
+      </c>
+      <c r="G22" s="6">
+        <v>59</v>
+      </c>
+      <c r="H22" s="6">
+        <v>96</v>
+      </c>
+      <c r="I22" s="6">
+        <v>106</v>
+      </c>
+      <c r="J22" s="6">
+        <v>98</v>
+      </c>
+      <c r="K22" s="6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D23" s="1">
+        <v>123</v>
+      </c>
+      <c r="E23" s="6">
+        <v>140</v>
+      </c>
+      <c r="F23" s="6">
+        <v>157</v>
+      </c>
+      <c r="G23" s="6">
+        <v>67</v>
+      </c>
+      <c r="H23" s="6">
+        <v>102</v>
+      </c>
+      <c r="I23" s="6">
+        <v>107</v>
+      </c>
+      <c r="J23" s="6">
+        <v>107</v>
+      </c>
+      <c r="K23" s="6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="D24" s="1">
+        <v>124</v>
+      </c>
+      <c r="E24" s="6">
+        <v>141</v>
+      </c>
+      <c r="F24" s="6">
+        <v>158</v>
+      </c>
+      <c r="G24" s="6">
+        <v>75</v>
+      </c>
+      <c r="H24" s="6">
+        <v>109</v>
+      </c>
+      <c r="I24" s="6">
+        <v>108</v>
+      </c>
+      <c r="J24" s="6">
+        <v>116</v>
+      </c>
+      <c r="K24" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="D25" s="1">
+        <v>125</v>
+      </c>
+      <c r="E25" s="6">
+        <v>141</v>
+      </c>
+      <c r="F25" s="6">
+        <v>158</v>
+      </c>
+      <c r="G25" s="6">
+        <v>83</v>
+      </c>
+      <c r="H25" s="6">
+        <v>117</v>
+      </c>
+      <c r="I25" s="6">
+        <v>110</v>
+      </c>
+      <c r="J25" s="6">
+        <v>122</v>
+      </c>
+      <c r="K25" s="6">
+        <v>121</v>
+      </c>
+      <c r="L25" t="s">
+        <v>116</v>
+      </c>
+      <c r="M25">
+        <f>82-10</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="D26" s="1">
+        <v>126</v>
+      </c>
+      <c r="E26" s="6">
+        <v>141</v>
+      </c>
+      <c r="F26" s="6">
+        <v>158</v>
+      </c>
+      <c r="G26" s="6">
+        <v>91</v>
+      </c>
+      <c r="H26" s="6">
+        <v>124</v>
+      </c>
+      <c r="I26" s="6">
+        <v>111</v>
+      </c>
+      <c r="J26" s="6">
+        <v>127</v>
+      </c>
+      <c r="K26" s="6">
+        <v>121</v>
+      </c>
+      <c r="L26" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <f>242-25</f>
+        <v>217</v>
+      </c>
+      <c r="N26" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="D27" s="1">
+        <v>127</v>
+      </c>
+      <c r="E27" s="6">
+        <v>140</v>
+      </c>
+      <c r="F27" s="6">
+        <v>157</v>
+      </c>
+      <c r="G27" s="6">
+        <v>99</v>
+      </c>
+      <c r="H27" s="6">
+        <v>130</v>
+      </c>
+      <c r="I27" s="6">
+        <v>114</v>
+      </c>
+      <c r="J27" s="6">
+        <v>130</v>
+      </c>
+      <c r="K27" s="6">
+        <v>122</v>
+      </c>
+      <c r="L27" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="13">
+        <f>M26/M25</f>
+        <v>3.0138888888888888</v>
+      </c>
+      <c r="N27" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27" t="s">
+        <v>102</v>
+      </c>
+      <c r="U27" t="s">
+        <v>43</v>
+      </c>
+      <c r="V27" s="12">
+        <f>PID!R20</f>
+        <v>0.89483931681436979</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D28" s="1">
+        <v>128</v>
+      </c>
+      <c r="E28" s="6">
+        <v>139</v>
+      </c>
+      <c r="F28" s="6">
+        <v>156</v>
+      </c>
+      <c r="G28" s="6">
+        <v>107</v>
+      </c>
+      <c r="H28" s="6">
+        <v>133</v>
+      </c>
+      <c r="I28" s="6">
+        <v>118</v>
+      </c>
+      <c r="J28" s="6">
+        <v>131</v>
+      </c>
+      <c r="K28" s="6">
+        <v>122</v>
+      </c>
+      <c r="L28" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28" t="s">
+        <v>7</v>
+      </c>
+      <c r="P28" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q28">
+        <v>17</v>
+      </c>
+      <c r="U28" t="s">
+        <v>110</v>
+      </c>
+      <c r="V28">
+        <f>PID!R21</f>
+        <v>0.31694378305317089</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="D29" s="1">
+        <v>128</v>
+      </c>
+      <c r="E29" s="6">
+        <v>138</v>
+      </c>
+      <c r="F29" s="6">
+        <v>155</v>
+      </c>
+      <c r="G29" s="6">
+        <v>112</v>
+      </c>
+      <c r="H29" s="6">
+        <v>135</v>
+      </c>
+      <c r="I29" s="6">
+        <v>122</v>
+      </c>
+      <c r="J29" s="6">
+        <v>131</v>
+      </c>
+      <c r="K29" s="6">
+        <v>122</v>
+      </c>
+      <c r="P29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s">
+        <v>7</v>
+      </c>
+      <c r="U29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V29">
+        <f>PID!R22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="D30" s="1">
+        <v>129</v>
+      </c>
+      <c r="E30" s="6">
+        <v>137</v>
+      </c>
+      <c r="F30" s="6">
+        <v>153</v>
+      </c>
+      <c r="G30" s="6">
+        <v>116</v>
+      </c>
+      <c r="H30" s="6">
+        <v>136</v>
+      </c>
+      <c r="I30" s="6">
+        <v>126</v>
+      </c>
+      <c r="J30" s="6">
+        <v>132</v>
+      </c>
+      <c r="K30" s="6">
+        <v>123</v>
+      </c>
+      <c r="L30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30">
+        <f>0.632*M26+25</f>
+        <v>162.14400000000001</v>
+      </c>
+      <c r="N30" t="s">
+        <v>3</v>
+      </c>
+      <c r="P30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s">
+        <v>7</v>
+      </c>
+      <c r="U30" t="s">
+        <v>49</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="D31" s="1">
+        <v>130</v>
+      </c>
+      <c r="E31" s="6">
+        <v>136</v>
+      </c>
+      <c r="F31" s="6">
+        <v>152</v>
+      </c>
+      <c r="G31" s="6">
+        <v>118</v>
+      </c>
+      <c r="H31" s="6">
+        <v>136</v>
+      </c>
+      <c r="I31" s="6">
+        <v>128</v>
+      </c>
+      <c r="J31" s="6">
+        <v>131</v>
+      </c>
+      <c r="K31" s="6">
+        <v>124</v>
+      </c>
+      <c r="L31" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31">
+        <v>55</v>
+      </c>
+      <c r="N31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="D32" s="1">
+        <v>131</v>
+      </c>
+      <c r="E32" s="6">
+        <v>135</v>
+      </c>
+      <c r="F32" s="6">
+        <v>150</v>
+      </c>
+      <c r="G32" s="6">
+        <v>120</v>
+      </c>
+      <c r="H32" s="6">
+        <v>136</v>
+      </c>
+      <c r="I32" s="6">
+        <v>130</v>
+      </c>
+      <c r="J32" s="6">
+        <v>131</v>
+      </c>
+      <c r="K32" s="6">
+        <v>126</v>
+      </c>
+      <c r="L32" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32">
+        <f>M31-M28</f>
+        <v>45</v>
+      </c>
+      <c r="N32" t="s">
+        <v>7</v>
+      </c>
+      <c r="U32" t="s">
+        <v>112</v>
+      </c>
+      <c r="V32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="D33" s="1">
+        <v>132</v>
+      </c>
+      <c r="E33" s="6">
+        <v>134</v>
+      </c>
+      <c r="F33" s="6">
+        <v>148</v>
+      </c>
+      <c r="G33" s="6">
+        <v>120</v>
+      </c>
+      <c r="H33" s="6">
+        <v>136</v>
+      </c>
+      <c r="I33" s="6">
+        <v>131</v>
+      </c>
+      <c r="J33" s="6">
+        <v>132</v>
+      </c>
+      <c r="K33" s="6">
+        <v>129</v>
+      </c>
+      <c r="P33" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="D34" s="1">
+        <v>132</v>
+      </c>
+      <c r="E34" s="6">
+        <v>133</v>
+      </c>
+      <c r="F34" s="6">
+        <v>147</v>
+      </c>
+      <c r="G34" s="6">
+        <v>121</v>
+      </c>
+      <c r="H34" s="6">
+        <v>136</v>
+      </c>
+      <c r="I34" s="6">
+        <v>132</v>
+      </c>
+      <c r="J34" s="6">
+        <v>133</v>
+      </c>
+      <c r="K34" s="6">
+        <v>132</v>
+      </c>
+      <c r="L34" t="s">
+        <v>103</v>
+      </c>
+      <c r="M34">
+        <f>0.95*M26+29</f>
+        <v>235.14999999999998</v>
+      </c>
+      <c r="P34" t="s">
+        <v>109</v>
+      </c>
+      <c r="U34" t="s">
+        <v>43</v>
+      </c>
+      <c r="V34" s="12">
+        <f>M32/(M32+Q30)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="D35" s="1">
+        <v>133</v>
+      </c>
+      <c r="E35" s="6">
+        <v>132</v>
+      </c>
+      <c r="F35" s="6">
+        <v>146</v>
+      </c>
+      <c r="G35" s="6">
+        <v>121</v>
+      </c>
+      <c r="H35" s="6">
+        <v>136</v>
+      </c>
+      <c r="I35" s="6">
+        <v>133</v>
+      </c>
+      <c r="J35" s="6">
+        <v>134</v>
+      </c>
+      <c r="K35" s="6">
+        <v>135</v>
+      </c>
+      <c r="L35" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35">
+        <v>130</v>
+      </c>
+      <c r="N35" t="s">
+        <v>7</v>
+      </c>
+      <c r="U35" t="s">
+        <v>115</v>
+      </c>
+      <c r="V35">
+        <f>M27*Q30/(M32+Q30)</f>
+        <v>0.30138888888888887</v>
+      </c>
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="D36" s="1">
+        <v>134</v>
+      </c>
+      <c r="E36" s="6">
+        <v>132</v>
+      </c>
+      <c r="F36" s="6">
+        <v>144</v>
+      </c>
+      <c r="G36" s="6">
+        <v>121</v>
+      </c>
+      <c r="H36" s="6">
+        <v>136</v>
+      </c>
+      <c r="I36" s="6">
+        <v>133</v>
+      </c>
+      <c r="J36" s="6">
+        <v>134</v>
+      </c>
+      <c r="K36" s="6">
+        <v>137</v>
+      </c>
+      <c r="L36" t="s">
+        <v>105</v>
+      </c>
+      <c r="M36">
+        <f>M35-M28</f>
+        <v>120</v>
+      </c>
+      <c r="N36" t="s">
+        <v>7</v>
+      </c>
+      <c r="U36" t="s">
+        <v>110</v>
+      </c>
+      <c r="V36">
+        <f>V35*(1-M28/Q30)</f>
+        <v>-0.30138888888888887</v>
+      </c>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="D37" s="1">
+        <v>135</v>
+      </c>
+      <c r="E37" s="6">
+        <v>133</v>
+      </c>
+      <c r="F37" s="6">
+        <v>142</v>
+      </c>
+      <c r="G37" s="6">
+        <v>120</v>
+      </c>
+      <c r="H37" s="6">
+        <v>136</v>
+      </c>
+      <c r="I37" s="6">
+        <v>134</v>
+      </c>
+      <c r="J37" s="6">
+        <v>134</v>
+      </c>
+      <c r="K37" s="6">
+        <v>139</v>
+      </c>
+      <c r="L37" t="s">
+        <v>104</v>
+      </c>
+      <c r="M37">
+        <f>M36/15</f>
+        <v>8</v>
+      </c>
+      <c r="N37" t="s">
+        <v>106</v>
+      </c>
+      <c r="O37">
+        <f>M36/6</f>
+        <v>20</v>
+      </c>
+      <c r="P37" t="s">
+        <v>7</v>
+      </c>
+      <c r="U37" t="s">
+        <v>111</v>
+      </c>
+      <c r="V37">
+        <f>M28/Q30</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="D38" s="1">
+        <v>135</v>
+      </c>
+      <c r="E38" s="6">
+        <v>133</v>
+      </c>
+      <c r="F38" s="6">
+        <v>141</v>
+      </c>
+      <c r="G38" s="6">
+        <v>120</v>
+      </c>
+      <c r="H38" s="6">
+        <v>135</v>
+      </c>
+      <c r="I38" s="6">
+        <v>135</v>
+      </c>
+      <c r="J38" s="6">
+        <v>134</v>
+      </c>
+      <c r="K38" s="6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="D39" s="1">
+        <v>136</v>
+      </c>
+      <c r="E39" s="6">
+        <v>135</v>
+      </c>
+      <c r="F39" s="6">
+        <v>139</v>
+      </c>
+      <c r="G39" s="6">
+        <v>120</v>
+      </c>
+      <c r="H39" s="6">
+        <v>135</v>
+      </c>
+      <c r="I39" s="6">
+        <v>136</v>
+      </c>
+      <c r="J39" s="6">
+        <v>134</v>
+      </c>
+      <c r="K39" s="6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="D40" s="1">
+        <v>137</v>
+      </c>
+      <c r="E40" s="6">
+        <v>137</v>
+      </c>
+      <c r="F40" s="6">
+        <v>138</v>
+      </c>
+      <c r="G40" s="6">
+        <v>120</v>
+      </c>
+      <c r="H40" s="6">
+        <v>135</v>
+      </c>
+      <c r="I40" s="6">
+        <v>137</v>
+      </c>
+      <c r="J40" s="6">
+        <v>134</v>
+      </c>
+      <c r="K40" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="D41" s="1">
+        <v>138</v>
+      </c>
+      <c r="E41" s="6">
+        <v>138</v>
+      </c>
+      <c r="F41" s="6">
+        <v>138</v>
+      </c>
+      <c r="G41" s="6">
+        <v>120</v>
+      </c>
+      <c r="H41" s="6">
+        <v>134</v>
+      </c>
+      <c r="I41" s="6">
+        <v>138</v>
+      </c>
+      <c r="J41" s="6">
+        <v>133</v>
+      </c>
+      <c r="K41" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="D42" s="1">
+        <v>139</v>
+      </c>
+      <c r="E42" s="6">
+        <v>138</v>
+      </c>
+      <c r="F42" s="6">
+        <v>137</v>
+      </c>
+      <c r="G42" s="6">
+        <v>121</v>
+      </c>
+      <c r="H42" s="6">
+        <v>134</v>
+      </c>
+      <c r="I42" s="6">
+        <v>139</v>
+      </c>
+      <c r="J42" s="6">
+        <v>134</v>
+      </c>
+      <c r="K42" s="6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="D43" s="1">
+        <v>139</v>
+      </c>
+      <c r="E43" s="6">
+        <v>139</v>
+      </c>
+      <c r="F43" s="6">
+        <v>137</v>
+      </c>
+      <c r="G43" s="6">
+        <v>121</v>
+      </c>
+      <c r="H43" s="6">
+        <v>135</v>
+      </c>
+      <c r="I43" s="6">
+        <v>139</v>
+      </c>
+      <c r="J43" s="6">
+        <v>135</v>
+      </c>
+      <c r="K43" s="6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="D44" s="1">
+        <v>143</v>
+      </c>
+      <c r="E44" s="6">
+        <v>139</v>
+      </c>
+      <c r="F44" s="6">
+        <v>136</v>
+      </c>
+      <c r="G44" s="6">
+        <v>123</v>
+      </c>
+      <c r="H44" s="6">
+        <v>135</v>
+      </c>
+      <c r="I44" s="6">
+        <v>139</v>
+      </c>
+      <c r="J44" s="6">
+        <v>137</v>
+      </c>
+      <c r="K44" s="6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="D45" s="1">
+        <v>149</v>
+      </c>
+      <c r="E45" s="6">
+        <v>140</v>
+      </c>
+      <c r="F45" s="6">
+        <v>136</v>
+      </c>
+      <c r="G45" s="6">
+        <v>123</v>
+      </c>
+      <c r="H45" s="6">
+        <v>135</v>
+      </c>
+      <c r="I45" s="6">
+        <v>139</v>
+      </c>
+      <c r="J45" s="6">
+        <v>139</v>
+      </c>
+      <c r="K45" s="6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="D46" s="1">
+        <v>155</v>
+      </c>
+      <c r="E46" s="6">
+        <v>140</v>
+      </c>
+      <c r="F46" s="6">
+        <v>138</v>
+      </c>
+      <c r="G46" s="6">
+        <v>125</v>
+      </c>
+      <c r="H46" s="6">
+        <v>136</v>
+      </c>
+      <c r="I46" s="6">
+        <v>139</v>
+      </c>
+      <c r="J46" s="6">
+        <v>141</v>
+      </c>
+      <c r="K46" s="6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="D47" s="1">
+        <v>161</v>
+      </c>
+      <c r="E47" s="6">
+        <v>140</v>
+      </c>
+      <c r="F47" s="6">
+        <v>140</v>
+      </c>
+      <c r="G47" s="6">
+        <v>128</v>
+      </c>
+      <c r="H47" s="6">
+        <v>138</v>
+      </c>
+      <c r="I47" s="6">
+        <v>140</v>
+      </c>
+      <c r="J47" s="6">
+        <v>142</v>
+      </c>
+      <c r="K47" s="6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="D48" s="1">
+        <v>167</v>
+      </c>
+      <c r="E48" s="6">
+        <v>141</v>
+      </c>
+      <c r="F48" s="6">
+        <v>143</v>
+      </c>
+      <c r="G48" s="6">
+        <v>130</v>
+      </c>
+      <c r="H48" s="6">
+        <v>140</v>
+      </c>
+      <c r="I48" s="6">
+        <v>141</v>
+      </c>
+      <c r="J48" s="6">
+        <v>144</v>
+      </c>
+      <c r="K48" s="6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C49" s="1">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="D49" s="1">
+        <v>170</v>
+      </c>
+      <c r="E49" s="6">
+        <v>144</v>
+      </c>
+      <c r="F49" s="6">
+        <v>147</v>
+      </c>
+      <c r="G49" s="6">
+        <v>133</v>
+      </c>
+      <c r="H49" s="6">
+        <v>143</v>
+      </c>
+      <c r="I49" s="6">
+        <v>143</v>
+      </c>
+      <c r="J49" s="6">
+        <v>145</v>
+      </c>
+      <c r="K49" s="6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C50" s="1">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="D50" s="1">
+        <v>170</v>
+      </c>
+      <c r="E50" s="6">
+        <v>147</v>
+      </c>
+      <c r="F50" s="6">
+        <v>151</v>
+      </c>
+      <c r="G50" s="6">
+        <v>136</v>
+      </c>
+      <c r="H50" s="6">
+        <v>146</v>
+      </c>
+      <c r="I50" s="6">
+        <v>146</v>
+      </c>
+      <c r="J50" s="6">
+        <v>146</v>
+      </c>
+      <c r="K50" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C51" s="1">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="D51" s="1">
+        <v>170</v>
+      </c>
+      <c r="E51" s="6">
+        <v>151</v>
+      </c>
+      <c r="F51" s="6">
+        <v>157</v>
+      </c>
+      <c r="G51" s="6">
+        <v>139</v>
+      </c>
+      <c r="H51" s="6">
+        <v>151</v>
+      </c>
+      <c r="I51" s="6">
+        <v>150</v>
+      </c>
+      <c r="J51" s="6">
+        <v>148</v>
+      </c>
+      <c r="K51" s="6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C52" s="1">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="D52" s="1">
+        <v>170</v>
+      </c>
+      <c r="E52" s="6">
+        <v>157</v>
+      </c>
+      <c r="F52" s="6">
+        <v>163</v>
+      </c>
+      <c r="G52" s="6">
+        <v>142</v>
+      </c>
+      <c r="H52" s="6">
+        <v>154</v>
+      </c>
+      <c r="I52" s="6">
+        <v>154</v>
+      </c>
+      <c r="J52" s="6">
+        <v>152</v>
+      </c>
+      <c r="K52" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C53" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D53" s="1">
+        <v>170</v>
+      </c>
+      <c r="E53" s="1">
+        <v>162</v>
+      </c>
+      <c r="F53" s="6">
+        <v>169</v>
+      </c>
+      <c r="G53" s="6">
+        <v>144</v>
+      </c>
+      <c r="H53" s="6">
+        <v>159</v>
+      </c>
+      <c r="I53" s="6">
+        <v>159</v>
+      </c>
+      <c r="J53" s="6">
+        <v>154</v>
+      </c>
+      <c r="K53" s="6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C54" s="1">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="D54" s="1">
+        <v>168</v>
+      </c>
+      <c r="E54" s="1">
+        <v>168</v>
+      </c>
+      <c r="F54" s="6">
+        <v>175</v>
+      </c>
+      <c r="G54" s="6">
+        <v>147</v>
+      </c>
+      <c r="H54" s="6">
+        <v>162</v>
+      </c>
+      <c r="I54" s="6">
+        <v>163</v>
+      </c>
+      <c r="J54" s="6">
+        <v>158</v>
+      </c>
+      <c r="K54" s="6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C55" s="1">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="D55" s="1">
+        <v>163</v>
+      </c>
+      <c r="E55" s="1">
+        <v>173</v>
+      </c>
+      <c r="F55" s="6">
+        <v>180</v>
+      </c>
+      <c r="G55" s="6">
+        <v>149</v>
+      </c>
+      <c r="H55" s="6">
+        <v>165</v>
+      </c>
+      <c r="I55" s="6">
+        <v>166</v>
+      </c>
+      <c r="J55" s="6">
+        <v>162</v>
+      </c>
+      <c r="K55" s="6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C56" s="1">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="D56" s="1">
+        <v>159</v>
+      </c>
+      <c r="E56" s="1">
+        <v>178</v>
+      </c>
+      <c r="F56" s="6">
+        <v>184</v>
+      </c>
+      <c r="G56" s="6">
+        <v>151</v>
+      </c>
+      <c r="H56" s="6">
+        <v>167</v>
+      </c>
+      <c r="I56" s="6">
+        <v>167</v>
+      </c>
+      <c r="J56" s="6">
+        <v>164</v>
+      </c>
+      <c r="K56" s="6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C57" s="1">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="D57" s="1">
+        <v>154</v>
+      </c>
+      <c r="E57" s="1">
+        <v>183</v>
+      </c>
+      <c r="F57" s="6">
+        <v>187</v>
+      </c>
+      <c r="G57" s="6">
+        <v>153</v>
+      </c>
+      <c r="H57" s="6">
+        <v>167</v>
+      </c>
+      <c r="I57" s="6">
+        <v>168</v>
+      </c>
+      <c r="J57" s="6">
+        <v>167</v>
+      </c>
+      <c r="K57" s="6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C58" s="1">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="D58" s="1">
+        <v>150</v>
+      </c>
+      <c r="E58" s="1">
+        <v>185</v>
+      </c>
+      <c r="F58" s="6">
+        <v>189</v>
+      </c>
+      <c r="G58" s="6">
+        <v>154</v>
+      </c>
+      <c r="H58" s="6">
+        <v>167</v>
+      </c>
+      <c r="I58" s="6">
+        <v>168</v>
+      </c>
+      <c r="J58" s="6">
+        <v>168</v>
+      </c>
+      <c r="K58" s="6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C59" s="1">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="D59" s="1">
+        <v>145</v>
+      </c>
+      <c r="E59" s="1">
+        <v>187</v>
+      </c>
+      <c r="F59" s="6">
+        <v>189</v>
+      </c>
+      <c r="G59" s="6">
+        <v>154</v>
+      </c>
+      <c r="H59" s="6">
+        <v>167</v>
+      </c>
+      <c r="I59" s="6">
+        <v>169</v>
+      </c>
+      <c r="J59" s="6">
+        <v>169</v>
+      </c>
+      <c r="K59" s="6">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C60" s="1">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="D60" s="1">
+        <v>141</v>
+      </c>
+      <c r="E60" s="1">
+        <v>187</v>
+      </c>
+      <c r="F60" s="6">
+        <v>189</v>
+      </c>
+      <c r="G60" s="6">
+        <v>155</v>
+      </c>
+      <c r="H60" s="6">
+        <v>166</v>
+      </c>
+      <c r="I60" s="6">
+        <v>170</v>
+      </c>
+      <c r="J60" s="6">
+        <v>169</v>
+      </c>
+      <c r="K60" s="6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C61" s="1">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+      <c r="D61" s="1">
+        <v>134</v>
+      </c>
+      <c r="E61" s="1">
+        <v>187</v>
+      </c>
+      <c r="F61" s="6">
+        <v>188</v>
+      </c>
+      <c r="G61" s="6">
+        <v>154</v>
+      </c>
+      <c r="H61" s="6">
+        <v>165</v>
+      </c>
+      <c r="I61" s="6">
+        <v>169</v>
+      </c>
+      <c r="J61" s="6">
+        <v>168</v>
+      </c>
+      <c r="K61" s="6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C62" s="1">
+        <f t="shared" si="0"/>
+        <v>236</v>
+      </c>
+      <c r="D62" s="1">
+        <v>129</v>
+      </c>
+      <c r="E62" s="1">
+        <v>186</v>
+      </c>
+      <c r="F62" s="6">
+        <v>187</v>
+      </c>
+      <c r="G62" s="6">
+        <v>154</v>
+      </c>
+      <c r="H62" s="6">
+        <v>163</v>
+      </c>
+      <c r="I62" s="6">
+        <v>169</v>
+      </c>
+      <c r="J62" s="6">
+        <v>167</v>
+      </c>
+      <c r="K62" s="6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C63" s="1">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="D63" s="1">
+        <v>125</v>
+      </c>
+      <c r="E63" s="1">
+        <v>184</v>
+      </c>
+      <c r="F63" s="6">
+        <v>184</v>
+      </c>
+      <c r="G63" s="6">
+        <v>153</v>
+      </c>
+      <c r="H63" s="6">
+        <v>162</v>
+      </c>
+      <c r="I63" s="6">
+        <v>167</v>
+      </c>
+      <c r="J63" s="6">
+        <v>166</v>
+      </c>
+      <c r="K63" s="6">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C64" s="1">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="D64" s="1">
+        <v>120</v>
+      </c>
+      <c r="E64" s="1">
+        <v>182</v>
+      </c>
+      <c r="F64" s="6">
+        <v>183</v>
+      </c>
+      <c r="G64" s="6">
+        <v>151</v>
+      </c>
+      <c r="H64" s="6">
+        <v>160</v>
+      </c>
+      <c r="I64" s="6">
+        <v>166</v>
+      </c>
+      <c r="J64" s="6">
+        <v>165</v>
+      </c>
+      <c r="K64" s="6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G65" s="6">
+        <v>150</v>
+      </c>
+      <c r="H65" s="6">
+        <v>158</v>
+      </c>
+      <c r="I65" s="6">
+        <v>165</v>
+      </c>
+      <c r="J65" s="6">
+        <v>163</v>
+      </c>
+      <c r="K65" s="6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G66" s="6">
+        <v>149</v>
+      </c>
+      <c r="H66" s="6">
+        <v>157</v>
+      </c>
+      <c r="I66" s="6">
+        <v>163</v>
+      </c>
+      <c r="J66" s="6">
+        <v>161</v>
+      </c>
+      <c r="K66" s="6">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G67" s="6">
+        <v>148</v>
+      </c>
+      <c r="H67" s="6">
+        <v>148</v>
+      </c>
+      <c r="I67" s="6">
+        <v>162</v>
+      </c>
+      <c r="J67" s="6">
+        <v>159</v>
+      </c>
+      <c r="K67" s="6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="I68" s="6">
+        <v>160</v>
+      </c>
+      <c r="J68" s="6">
+        <v>157</v>
+      </c>
+      <c r="K68" s="6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="I69" s="6">
+        <v>159</v>
+      </c>
+      <c r="J69" s="6">
+        <v>156</v>
+      </c>
+      <c r="K69" s="6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="J70" s="6">
+        <v>155</v>
+      </c>
+      <c r="K70" s="6">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="J71" s="6">
+        <v>153</v>
+      </c>
+      <c r="K71" s="6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="J72" s="6">
+        <v>152</v>
+      </c>
+      <c r="K72" s="6">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="J73" s="6">
+        <v>150</v>
+      </c>
+      <c r="K73" s="6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="J74" s="6">
+        <v>148</v>
+      </c>
+      <c r="K74" s="6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="J75" s="6">
+        <v>146</v>
+      </c>
+      <c r="K75" s="6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="J76" s="6">
+        <v>145</v>
+      </c>
+      <c r="K76" s="6"/>
+    </row>
+    <row r="77" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="J77" s="6">
+        <v>144</v>
+      </c>
+      <c r="K77" s="6"/>
+    </row>
+    <row r="78" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="J78" s="6">
+        <v>142</v>
+      </c>
+      <c r="K78" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>